--- a/branches/dev2/StructureDefinition-item-settings.xlsx
+++ b/branches/dev2/StructureDefinition-item-settings.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension : Settings </t>
+    <t xml:space="preserve">Extension : Item Settings </t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T16:23:46+00:00</t>
+    <t>2022-04-13T16:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/dev2/StructureDefinition-item-settings.xlsx
+++ b/branches/dev2/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T16:29:46+00:00</t>
+    <t>2022-04-13T16:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -362,10 +362,10 @@
     <t>label</t>
   </si>
   <si>
-    <t>description</t>
+    <t>variableName</t>
   </si>
   <si>
-    <t>variableName</t>
+    <t>description</t>
   </si>
   <si>
     <t>standardVariable</t>
@@ -1774,7 +1774,7 @@
         <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>97</v>
@@ -2253,7 +2253,7 @@
         <v>85</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>73</v>
@@ -2278,7 +2278,7 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>97</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>73</v>
@@ -2782,7 +2782,7 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>97</v>
@@ -3286,7 +3286,7 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>97</v>
@@ -3765,7 +3765,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>73</v>
@@ -3790,7 +3790,7 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>97</v>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>73</v>

--- a/branches/dev2/StructureDefinition-item-settings.xlsx
+++ b/branches/dev2/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T16:38:03+00:00</t>
+    <t>2022-04-13T16:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
